--- a/CLASE-11/EjemploInformacion.xlsx
+++ b/CLASE-11/EjemploInformacion.xlsx
@@ -3,24 +3,27 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10020" yWindow="4110" windowWidth="18150" windowHeight="13650" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10020" yWindow="4110" windowWidth="18150" windowHeight="13650" tabRatio="600" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Resultados" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Personas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Resultados" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="EjercicioNuevo" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Estadisticas" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -37,10 +40,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="6"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -53,6 +72,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000B050"/>
+        <bgColor rgb="0000B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -63,21 +94,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="18.7109375" customWidth="1" style="2" min="4" max="4"/>
+    <col width="18.7109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -679,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -819,8 +869,6 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="14"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -834,7 +882,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -977,21 +1025,102 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Apellido</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Edad</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Adolfo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Angie</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Obando</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Asignatura</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Promedio</t>
         </is>
@@ -1030,4 +1159,131 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VLA Hola</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Cantidad de Personas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Apellido</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>Edad</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Adolfo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Angie</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Obando</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vargas</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>